--- a/builds/production/data/maindata.xlsx
+++ b/builds/production/data/maindata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="18380" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="18380" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="populations" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="commutes" sheetId="4" r:id="rId3"/>
     <sheet name="megaregions" sheetId="3" r:id="rId4"/>
     <sheet name="source" sheetId="5" r:id="rId5"/>
+    <sheet name="layout" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="271">
   <si>
     <r>
       <t>Arizona Sun Corridor</t>
@@ -2875,14 +2876,95 @@
     <t>pct</t>
   </si>
   <si>
-    <t>Source: Darmouth College, U.S. Census Bureau</t>
+    <t>tab</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>populations</t>
+  </si>
+  <si>
+    <t>commuter_flows</t>
+  </si>
+  <si>
+    <t>commutes</t>
+  </si>
+  <si>
+    <t>U.S. Census Bureau</t>
+  </si>
+  <si>
+    <t>Commuter flows into the Twin Cities by metro of origin</t>
+  </si>
+  <si>
+    <t>Percent of commuters coming into Twin Cities by metro of origin</t>
+  </si>
+  <si>
+    <t>U.S. megaregions by location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An Economic Geography of the United States: From Commutes to Megaregions </t>
+  </si>
+  <si>
+    <t>Source: Regional Plan Association, An Economic Geography of the United States: From Commutes to Megaregions , U.S. Census Bureau</t>
+  </si>
+  <si>
+    <t>Regional Plan Association</t>
+  </si>
+  <si>
+    <t>America 2050 megaregion population projections</t>
+  </si>
+  <si>
+    <t>megaregions</t>
+  </si>
+  <si>
+    <t>Megaregion name</t>
+  </si>
+  <si>
+    <t>Region's 2010 population</t>
+  </si>
+  <si>
+    <t>Region's 2050 projected population</t>
+  </si>
+  <si>
+    <t>Percent project population growth between 2010 and 2025 for region</t>
+  </si>
+  <si>
+    <t>Major cities included in region</t>
+  </si>
+  <si>
+    <t>Metro area name</t>
+  </si>
+  <si>
+    <t>State name</t>
+  </si>
+  <si>
+    <t>Number of commuters to the Twin Cities</t>
+  </si>
+  <si>
+    <t>Percent of Twin Cities commuters</t>
+  </si>
+  <si>
+    <t>PLOS name</t>
+  </si>
+  <si>
+    <t>Main city in megaregion</t>
+  </si>
+  <si>
+    <t>Latitude coordinate</t>
+  </si>
+  <si>
+    <t>Longitude coordinate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2949,6 +3031,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2982,12 +3072,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2999,9 +3107,28 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="21">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -3335,7 +3462,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D12"/>
+      <selection activeCell="E1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3583,7 +3710,7 @@
   <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="C1" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4178,6 +4305,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4191,7 +4319,7 @@
   <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D54"/>
+      <selection activeCell="D1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4950,6 +5078,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4963,7 +5092,7 @@
   <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5837,6 +5966,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -5847,26 +5977,266 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="53.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>2016</v>
       </c>
     </row>
+    <row r="6" spans="1:3" s="11" customFormat="1">
+      <c r="A6" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B7" t="s">
+        <v>256</v>
+      </c>
+      <c r="C7" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>247</v>
+      </c>
+      <c r="B8" t="s">
+        <v>250</v>
+      </c>
+      <c r="C8" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>248</v>
+      </c>
+      <c r="B9" t="s">
+        <v>251</v>
+      </c>
+      <c r="C9" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>257</v>
+      </c>
+      <c r="B10" t="s">
+        <v>252</v>
+      </c>
+      <c r="C10" t="s">
+        <v>253</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" s="11" customFormat="1">
+      <c r="A2" s="11" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="11" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="11" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>241</v>
+      </c>
+      <c r="B17" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>242</v>
+      </c>
+      <c r="B18" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="11" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>110</v>
+      </c>
+      <c r="B21" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>111</v>
+      </c>
+      <c r="B22" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>112</v>
+      </c>
+      <c r="B23" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>113</v>
+      </c>
+      <c r="B24" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>114</v>
+      </c>
+      <c r="B25" t="s">
+        <v>270</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
